--- a/SchedulingData/dynamic13/pso/scheduling2_6.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,93 +466,93 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>202.1</v>
+        <v>229.46</v>
       </c>
       <c r="D2" t="n">
-        <v>260.6</v>
+        <v>277.82</v>
       </c>
       <c r="E2" t="n">
-        <v>12.6</v>
+        <v>15.768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>266.78</v>
+        <v>234.06</v>
       </c>
       <c r="D3" t="n">
-        <v>311.08</v>
+        <v>284.34</v>
       </c>
       <c r="E3" t="n">
-        <v>11.532</v>
+        <v>12.756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>260.6</v>
+        <v>284.34</v>
       </c>
       <c r="D4" t="n">
-        <v>324.76</v>
+        <v>326</v>
       </c>
       <c r="E4" t="n">
-        <v>8.804</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>220.2</v>
+        <v>213.1</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7</v>
+        <v>285.44</v>
       </c>
       <c r="E5" t="n">
-        <v>12.42</v>
+        <v>15.896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>324.76</v>
+        <v>205.98</v>
       </c>
       <c r="D6" t="n">
-        <v>370.28</v>
+        <v>253.58</v>
       </c>
       <c r="E6" t="n">
-        <v>5.892</v>
+        <v>14.812</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>218.54</v>
+        <v>326</v>
       </c>
       <c r="D7" t="n">
-        <v>269.74</v>
+        <v>374.56</v>
       </c>
       <c r="E7" t="n">
-        <v>13.696</v>
+        <v>6.984</v>
       </c>
     </row>
     <row r="8">
@@ -580,169 +580,169 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>370.28</v>
+        <v>277.82</v>
       </c>
       <c r="D8" t="n">
-        <v>409.8</v>
+        <v>328.48</v>
       </c>
       <c r="E8" t="n">
-        <v>3.56</v>
+        <v>11.832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>262.7</v>
+        <v>374.56</v>
       </c>
       <c r="D9" t="n">
-        <v>320.44</v>
+        <v>416.68</v>
       </c>
       <c r="E9" t="n">
-        <v>8.276</v>
+        <v>4.392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>269.74</v>
+        <v>253.58</v>
       </c>
       <c r="D10" t="n">
-        <v>351.64</v>
+        <v>336.22</v>
       </c>
       <c r="E10" t="n">
-        <v>10.616</v>
+        <v>10.668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>351.64</v>
+        <v>246.64</v>
       </c>
       <c r="D11" t="n">
-        <v>416.34</v>
+        <v>338.94</v>
       </c>
       <c r="E11" t="n">
-        <v>6.776</v>
+        <v>11.156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>311.08</v>
+        <v>328.48</v>
       </c>
       <c r="D12" t="n">
-        <v>359.62</v>
+        <v>373</v>
       </c>
       <c r="E12" t="n">
-        <v>8.308</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>206.98</v>
+        <v>416.68</v>
       </c>
       <c r="D13" t="n">
-        <v>272.84</v>
+        <v>470.54</v>
       </c>
       <c r="E13" t="n">
-        <v>13.356</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>232.62</v>
+        <v>470.54</v>
       </c>
       <c r="D14" t="n">
-        <v>290.32</v>
+        <v>547.17</v>
       </c>
       <c r="E14" t="n">
-        <v>11.648</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>409.8</v>
+        <v>338.94</v>
       </c>
       <c r="D15" t="n">
-        <v>479.66</v>
+        <v>388.42</v>
       </c>
       <c r="E15" t="n">
-        <v>1.184</v>
+        <v>7.828</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>479.66</v>
+        <v>244.52</v>
       </c>
       <c r="D16" t="n">
-        <v>554.1900000000001</v>
+        <v>286.42</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>12.528</v>
       </c>
     </row>
     <row r="17">
@@ -751,318 +751,318 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>416.34</v>
+        <v>547.17</v>
       </c>
       <c r="D17" t="n">
-        <v>479.04</v>
+        <v>592.83</v>
       </c>
       <c r="E17" t="n">
-        <v>3.596</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>359.62</v>
+        <v>373</v>
       </c>
       <c r="D18" t="n">
-        <v>424.92</v>
+        <v>414.08</v>
       </c>
       <c r="E18" t="n">
-        <v>5.888</v>
+        <v>6.532</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>290.32</v>
+        <v>286.42</v>
       </c>
       <c r="D19" t="n">
-        <v>352.22</v>
+        <v>352.82</v>
       </c>
       <c r="E19" t="n">
-        <v>8.568</v>
+        <v>9.528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>352.22</v>
+        <v>352.82</v>
       </c>
       <c r="D20" t="n">
-        <v>407.08</v>
+        <v>408.02</v>
       </c>
       <c r="E20" t="n">
-        <v>6.192</v>
+        <v>7.128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>272.84</v>
+        <v>414.08</v>
       </c>
       <c r="D21" t="n">
-        <v>337.42</v>
+        <v>468.36</v>
       </c>
       <c r="E21" t="n">
-        <v>10.028</v>
+        <v>3.724</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>337.42</v>
+        <v>468.36</v>
       </c>
       <c r="D22" t="n">
-        <v>436.62</v>
+        <v>520.24</v>
       </c>
       <c r="E22" t="n">
-        <v>5.708</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>424.92</v>
+        <v>520.24</v>
       </c>
       <c r="D23" t="n">
-        <v>481.6</v>
+        <v>595.73</v>
       </c>
       <c r="E23" t="n">
-        <v>2.82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>407.08</v>
+        <v>408.02</v>
       </c>
       <c r="D24" t="n">
-        <v>477.2</v>
+        <v>455.02</v>
       </c>
       <c r="E24" t="n">
-        <v>3.28</v>
+        <v>4.048</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>481.6</v>
+        <v>336.22</v>
       </c>
       <c r="D25" t="n">
-        <v>552.76</v>
+        <v>391.72</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>8.247999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>552.76</v>
+        <v>595.73</v>
       </c>
       <c r="D26" t="n">
-        <v>606.58</v>
+        <v>651.45</v>
       </c>
       <c r="E26" t="n">
-        <v>26.808</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>479.04</v>
+        <v>388.42</v>
       </c>
       <c r="D27" t="n">
-        <v>529.92</v>
+        <v>461.86</v>
       </c>
       <c r="E27" t="n">
-        <v>0.628</v>
+        <v>4.604</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>529.92</v>
+        <v>285.44</v>
       </c>
       <c r="D28" t="n">
-        <v>610.46</v>
+        <v>350.04</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>13.036</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>554.1900000000001</v>
+        <v>350.04</v>
       </c>
       <c r="D29" t="n">
-        <v>609.6900000000001</v>
+        <v>403.64</v>
       </c>
       <c r="E29" t="n">
-        <v>27.6</v>
+        <v>9.295999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>606.58</v>
+        <v>592.83</v>
       </c>
       <c r="D30" t="n">
-        <v>646.48</v>
+        <v>647.49</v>
       </c>
       <c r="E30" t="n">
-        <v>23.948</v>
+        <v>25.248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>610.46</v>
+        <v>391.72</v>
       </c>
       <c r="D31" t="n">
-        <v>650.4400000000001</v>
+        <v>464.32</v>
       </c>
       <c r="E31" t="n">
-        <v>27.192</v>
+        <v>5.068</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>477.2</v>
+        <v>455.02</v>
       </c>
       <c r="D32" t="n">
-        <v>508.56</v>
+        <v>499.32</v>
       </c>
       <c r="E32" t="n">
-        <v>0.784</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>508.56</v>
+        <v>499.32</v>
       </c>
       <c r="D33" t="n">
-        <v>598.59</v>
+        <v>584.42</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
@@ -1070,40 +1070,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>436.62</v>
+        <v>464.32</v>
       </c>
       <c r="D34" t="n">
-        <v>473.84</v>
+        <v>503.7</v>
       </c>
       <c r="E34" t="n">
-        <v>3.116</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>646.48</v>
+        <v>461.86</v>
       </c>
       <c r="D35" t="n">
-        <v>715.76</v>
+        <v>521.46</v>
       </c>
       <c r="E35" t="n">
-        <v>21.14</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="36">
@@ -1112,131 +1112,188 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>320.44</v>
+        <v>521.46</v>
       </c>
       <c r="D36" t="n">
-        <v>365.62</v>
+        <v>611.4299999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>4.888</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>365.62</v>
+        <v>647.49</v>
       </c>
       <c r="D37" t="n">
-        <v>402.82</v>
+        <v>719.99</v>
       </c>
       <c r="E37" t="n">
-        <v>2.808</v>
+        <v>23.088</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>598.59</v>
+        <v>651.45</v>
       </c>
       <c r="D38" t="n">
-        <v>638.71</v>
+        <v>715.53</v>
       </c>
       <c r="E38" t="n">
-        <v>27.668</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>650.4400000000001</v>
+        <v>403.64</v>
       </c>
       <c r="D39" t="n">
-        <v>710.1</v>
+        <v>458.8</v>
       </c>
       <c r="E39" t="n">
-        <v>24.816</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>715.76</v>
+        <v>503.7</v>
       </c>
       <c r="D40" t="n">
-        <v>748.66</v>
+        <v>576.08</v>
       </c>
       <c r="E40" t="n">
-        <v>18.98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>402.82</v>
+        <v>576.08</v>
       </c>
       <c r="D41" t="n">
-        <v>513.5</v>
+        <v>632.64</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>27.504</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>513.5</v>
+        <v>632.64</v>
       </c>
       <c r="D42" t="n">
-        <v>548.58</v>
+        <v>697.96</v>
       </c>
       <c r="E42" t="n">
-        <v>27.192</v>
+        <v>24.592</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>pond60</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>458.8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>508.12</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.588</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>pond42</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>508.12</v>
+      </c>
+      <c r="D44" t="n">
+        <v>569.08</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>569.08</v>
+      </c>
+      <c r="D45" t="n">
+        <v>664.26</v>
+      </c>
+      <c r="E45" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
